--- a/working/CrizerPFAS/CrizerPFAS-Clint-Level3.xlsx
+++ b/working/CrizerPFAS/CrizerPFAS-Clint-Level3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{985F2B31-0894-4FD1-BE16-C35E3D2A2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88DE5890-F850-4BEA-B007-4791FD1D2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="6705" windowWidth="18420" windowHeight="7815"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="CrizerPFAS-Clint-Level3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="104">
   <si>
     <t>Compound.Name</t>
   </si>
@@ -74,6 +74,264 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>8:2_Fluoroteleomer_Sulfonic_Acid</t>
+  </si>
+  <si>
+    <t>DTXSID00192353</t>
+  </si>
+  <si>
+    <t>1 uM</t>
+  </si>
+  <si>
+    <t>3:3_Fluorotelomer_carboxylic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID00379268</t>
+  </si>
+  <si>
+    <t>Linear Regression Failed</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID00880026</t>
+  </si>
+  <si>
+    <t>N-Ethylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1032646</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID1037303</t>
+  </si>
+  <si>
+    <t>N-Methylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1067629</t>
+  </si>
+  <si>
+    <t>2-(Perfluorohexyl)ethylphosphonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID20179883</t>
+  </si>
+  <si>
+    <t>3,3-Bis(trifluoromethyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30170109</t>
+  </si>
+  <si>
+    <t>Perfluorodecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031860</t>
+  </si>
+  <si>
+    <t>Perfluorohexanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031862</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031864</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID3037707</t>
+  </si>
+  <si>
+    <t>Potassium_Pefluorohexanesulfate</t>
+  </si>
+  <si>
+    <t>DTXSID3037709</t>
+  </si>
+  <si>
+    <t>Perfluoro-3,6-dioxaheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30382063</t>
+  </si>
+  <si>
+    <t>Perfluorotetradecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3059921</t>
+  </si>
+  <si>
+    <t>4:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30891564</t>
+  </si>
+  <si>
+    <t>3-(Perfluoroisopropyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID40380257</t>
+  </si>
+  <si>
+    <t>Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID4059916</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID40880025</t>
+  </si>
+  <si>
+    <t>Perfluorobutanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID5030030</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID50469320</t>
+  </si>
+  <si>
+    <t>11-H-Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID5061954</t>
+  </si>
+  <si>
+    <t>4H-Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID50892417</t>
+  </si>
+  <si>
+    <t>2,2,2-Trifluoroethyl_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60380390</t>
+  </si>
+  <si>
+    <t>Perfluoro(4-methoxybutanoic)_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60500450</t>
+  </si>
+  <si>
+    <t>Perfluoropentanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6062599</t>
+  </si>
+  <si>
+    <t>Perfluoro-4-isopropoxybutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60663110</t>
+  </si>
+  <si>
+    <t>6:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6067331</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorodecanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60892443</t>
+  </si>
+  <si>
+    <t>Perfluoro-3-methoxypropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID70191136</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID7040150</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID80108992</t>
+  </si>
+  <si>
+    <t>Perfluorononanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031863</t>
+  </si>
+  <si>
+    <t>Perfluorooctanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031865</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID8037706</t>
+  </si>
+  <si>
+    <t>Ammonium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID8037708</t>
+  </si>
+  <si>
+    <t>Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8047553</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonamido_ammonium_iodide</t>
+  </si>
+  <si>
+    <t>DTXSID8051419</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059920</t>
+  </si>
+  <si>
+    <t>Perfluoropropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059970</t>
+  </si>
+  <si>
+    <t>Perfluoro-1-octanesulfonyl_chloride</t>
+  </si>
+  <si>
+    <t>DTXSID90315130</t>
+  </si>
+  <si>
+    <t>Perfluorotridecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID90868151</t>
   </si>
 </sst>
 </file>
@@ -616,6 +874,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M44" totalsRowShown="0">
+  <autoFilter ref="A1:M44"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Compound.Name"/>
+    <tableColumn id="2" name="DTXSID"/>
+    <tableColumn id="3" name="Lab.Compound.Name"/>
+    <tableColumn id="4" name="Calibration"/>
+    <tableColumn id="5" name="Clint"/>
+    <tableColumn id="6" name="Clint.pValue"/>
+    <tableColumn id="7" name="Fit"/>
+    <tableColumn id="8" name="AIC"/>
+    <tableColumn id="9" name="AIC.Null"/>
+    <tableColumn id="10" name="Clint.1"/>
+    <tableColumn id="11" name="Clint.10"/>
+    <tableColumn id="12" name="AIC.Sat"/>
+    <tableColumn id="13" name="Sat.pValue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,11 +1195,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -976,19 +1269,19 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.2899999999999999E-38</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2">
-        <v>585</v>
+        <v>809</v>
       </c>
       <c r="I2">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1000,10 +1293,1735 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>825</v>
+      </c>
+      <c r="I3">
+        <v>765</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>18.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.4700000000000001E-9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>729</v>
+      </c>
+      <c r="I6">
+        <v>749</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>893</v>
+      </c>
+      <c r="I9">
+        <v>804</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>761</v>
+      </c>
+      <c r="I11">
+        <v>698</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>778</v>
+      </c>
+      <c r="I12">
+        <v>689</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>552</v>
+      </c>
+      <c r="I16">
+        <v>550</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>889</v>
+      </c>
+      <c r="I19">
+        <v>772</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>788</v>
+      </c>
+      <c r="I20">
+        <v>687</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>902</v>
+      </c>
+      <c r="I25">
+        <v>805</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>900</v>
+      </c>
+      <c r="I26">
+        <v>821</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>778</v>
+      </c>
+      <c r="I28">
+        <v>704</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>822</v>
+      </c>
+      <c r="I29">
+        <v>773</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>965</v>
+      </c>
+      <c r="I33">
+        <v>899</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>999</v>
+      </c>
+      <c r="I34">
+        <v>955</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>941</v>
+      </c>
+      <c r="I36">
+        <v>876</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>940</v>
+      </c>
+      <c r="I37">
+        <v>906</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>908</v>
+      </c>
+      <c r="I38">
+        <v>803</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>859</v>
+      </c>
+      <c r="I42">
+        <v>703</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>684</v>
+      </c>
+      <c r="I43">
+        <v>616</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>886</v>
+      </c>
+      <c r="I44">
+        <v>874</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>